--- a/src/test/resource/ParaBankTestData.xlsx
+++ b/src/test/resource/ParaBankTestData.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="OpenNewAccount" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t xml:space="preserve">TestCaseID</t>
   </si>
@@ -92,6 +93,18 @@
   </si>
   <si>
     <t xml:space="preserve">Click</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEL_AccountType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEL_AccountID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAVINGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A</t>
   </si>
 </sst>
 </file>
@@ -101,11 +114,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -127,6 +141,12 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,12 +191,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -305,101 +333,101 @@
   </sheetPr>
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>63733</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>763862019</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>76292</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="N2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -416,4 +444,60 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.85"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/test/resource/ParaBankTestData.xlsx
+++ b/src/test/resource/ParaBankTestData.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="OpenNewAccount" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="AccountDetails" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t xml:space="preserve">TestCaseID</t>
   </si>
@@ -105,6 +106,24 @@
   </si>
   <si>
     <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_AccountType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEL_ActivityPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEL_TransactionType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate=SAVINGS|D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All</t>
   </si>
 </sst>
 </file>
@@ -453,8 +472,8 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -500,4 +519,67 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.25"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/test/resource/ParaBankTestData.xlsx
+++ b/src/test/resource/ParaBankTestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
   <si>
     <t xml:space="preserve">TestCaseID</t>
   </si>
@@ -124,6 +124,27 @@
   </si>
   <si>
     <t xml:space="preserve">All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September</t>
   </si>
 </sst>
 </file>
@@ -166,6 +187,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -223,7 +245,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -478,8 +500,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -489,10 +511,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -506,7 +528,7 @@
       <c r="C2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -526,17 +548,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -546,13 +568,13 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -563,13 +585,149 @@
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
     </row>

--- a/src/test/resource/ParaBankTestData.xlsx
+++ b/src/test/resource/ParaBankTestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="48">
   <si>
     <t xml:space="preserve">TestCaseID</t>
   </si>
@@ -94,6 +94,27 @@
   </si>
   <si>
     <t xml:space="preserve">Click</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RandomGuy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RandomLastName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AddressOne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CityRandom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RandomStreet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomUserName</t>
   </si>
   <si>
     <t xml:space="preserve">SEL_AccountType</t>
@@ -372,16 +393,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.95"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -472,10 +496,56 @@
         <v>23</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>80733</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>76386019</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>87192</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1" display="Qwerty@123"/>
     <hyperlink ref="M2" r:id="rId2" display="Qwerty@123"/>
+    <hyperlink ref="L3" r:id="rId3" display="Qwerty@123"/>
+    <hyperlink ref="M3" r:id="rId4" display="Qwerty@123"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -492,10 +562,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -512,10 +582,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -526,10 +596,24 @@
         <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -548,10 +632,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -569,13 +653,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -586,13 +670,13 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -603,13 +687,13 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -620,13 +704,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -637,13 +721,13 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -654,13 +738,13 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -671,13 +755,13 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -688,13 +772,13 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -705,13 +789,13 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -722,13 +806,81 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resource/ParaBankTestData.xlsx
+++ b/src/test/resource/ParaBankTestData.xlsx
@@ -5,12 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Register" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="OpenNewAccount" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="AccountDetails" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Regressions" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Register" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="RegisterTwo" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="OpenNewAccount" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="AccountDetails" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +24,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="65">
+  <si>
+    <t xml:space="preserve">RegressionID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_01|YES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New|RegisterTwo</t>
+  </si>
   <si>
     <t xml:space="preserve">TestCaseID</t>
   </si>
@@ -115,6 +126,48 @@
   </si>
   <si>
     <t xml:space="preserve">randomUserName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LNK_Register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//a[contains(text(),'Register')]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@name='customer.firstName']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@name='customer.lastName']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@name='customer.address.street']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@name='customer.address.city']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@name='customer.address.state']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@name='customer.address.zipCode']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@name='customer.phoneNumber']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@name='customer.ssn']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@name='customer.username']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@name='customer.password']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@name='repeatedPassword']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@value='Register']</t>
   </si>
   <si>
     <t xml:space="preserve">SEL_AccountType</t>
@@ -175,7 +228,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -203,6 +256,18 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6AAB73"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -253,7 +318,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -266,7 +331,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -279,6 +364,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF6AAB73"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -393,86 +538,128 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.22"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="22.95"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>63733</v>
@@ -484,39 +671,39 @@
         <v>76292</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>80733</v>
@@ -528,16 +715,16 @@
         <v>87192</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +744,212 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Y15"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="34.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="36.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="25.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="33.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="27.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="27.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="30.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="23.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="23.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="26.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="22.12"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="45.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>63733</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>763862019</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>76292</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -576,44 +968,44 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -627,7 +1019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -635,7 +1027,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -647,240 +1039,240 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
